--- a/ASML/ASML.xlsx
+++ b/ASML/ASML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/ASML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_EC87B94C2574879B989D335379E904A5879DB002" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25AF1EFF-43E8-47B8-8586-438EF522FA96}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_EC87B94C2574879B989D335379E904A5879DB002" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A505B1D1-F12B-460B-8D2E-00688945B54A}"/>
   <bookViews>
-    <workbookView xWindow="39970" yWindow="3050" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -6447,13 +6447,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:V101"/>
+  <dimension ref="B1:X101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomRight" activeCell="X65" sqref="X65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7959,7 +7959,7 @@
         <v>842.4</v>
       </c>
     </row>
-    <row r="65" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="3" t="s">
         <v>65</v>
       </c>
@@ -7978,8 +7978,9 @@
       <c r="V65" s="3">
         <v>3944.2</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="X65" s="6"/>
+    </row>
+    <row r="66" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3" t="s">
         <v>66</v>
       </c>
@@ -7994,8 +7995,9 @@
       <c r="V66" s="3">
         <v>192.7</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="X66" s="6"/>
+    </row>
+    <row r="67" spans="2:24" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B67" s="12" t="s">
         <v>67</v>
       </c>
@@ -8056,7 +8058,7 @@
         <v>13235.5</v>
       </c>
     </row>
-    <row r="68" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:24" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="10" t="s">
         <v>68</v>
       </c>
@@ -8117,12 +8119,12 @@
         <v>36300.400000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B69" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B70" s="3" t="s">
         <v>70</v>
       </c>
@@ -8136,7 +8138,7 @@
         <v>2565.1999999999998</v>
       </c>
     </row>
-    <row r="71" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="3" t="s">
         <v>71</v>
       </c>
@@ -8150,7 +8152,7 @@
         <v>1875.9</v>
       </c>
     </row>
-    <row r="72" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="3" t="s">
         <v>72</v>
       </c>
@@ -8164,7 +8166,7 @@
         <v>315.3</v>
       </c>
     </row>
-    <row r="73" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B73" s="3" t="s">
         <v>73</v>
       </c>
@@ -8178,7 +8180,7 @@
         <v>746.2</v>
       </c>
     </row>
-    <row r="74" spans="2:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B74" s="9" t="s">
         <v>74</v>
       </c>
@@ -8192,7 +8194,7 @@
         <v>12481</v>
       </c>
     </row>
-    <row r="75" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:24" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B75" s="10" t="s">
         <v>75</v>
       </c>
@@ -8253,12 +8255,12 @@
         <v>17983.599999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B76" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B77" s="3" t="s">
         <v>77</v>
       </c>
@@ -8272,7 +8274,7 @@
         <v>3514.2</v>
       </c>
     </row>
-    <row r="78" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B78" s="3" t="s">
         <v>78</v>
       </c>
@@ -8286,7 +8288,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="79" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
         <v>74</v>
       </c>
@@ -8300,7 +8302,7 @@
         <v>5269.9</v>
       </c>
     </row>
-    <row r="80" spans="2:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B80" s="9" t="s">
         <v>79</v>
       </c>
